--- a/Plan/DataTables.xlsx
+++ b/Plan/DataTables.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Games\Match-3 Test\Plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12435" activeTab="1"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="MonsterAction" sheetId="1" r:id="rId1"/>
     <sheet name="Buff" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>Move</t>
   </si>
@@ -93,12 +88,6 @@
     <t>Column1</t>
   </si>
   <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
     <t>icon</t>
   </si>
   <si>
@@ -177,27 +166,6 @@
     <t>TakeOff</t>
   </si>
   <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
-    <t>Column6</t>
-  </si>
-  <si>
-    <t>Column7</t>
-  </si>
-  <si>
-    <t>Column8</t>
-  </si>
-  <si>
-    <t>Column9</t>
-  </si>
-  <si>
-    <t>Column10</t>
-  </si>
-  <si>
     <t>Column11</t>
   </si>
   <si>
@@ -205,12 +173,63 @@
   </si>
   <si>
     <t>PK</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>Bleeding</t>
+  </si>
+  <si>
+    <t>Healing</t>
+  </si>
+  <si>
+    <t>remainTurn</t>
+  </si>
+  <si>
+    <t>buffZone</t>
+  </si>
+  <si>
+    <t>creature</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>tagName</t>
+  </si>
+  <si>
+    <t>TRANSFORM</t>
+  </si>
+  <si>
+    <t>CREATURE</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>bleedingDMGRate</t>
+  </si>
+  <si>
+    <t>dodgeRate</t>
+  </si>
+  <si>
+    <t>healHP</t>
+  </si>
+  <si>
+    <t>chargeLayer</t>
+  </si>
+  <si>
+    <t>Change to ICON later</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -324,15 +343,15 @@
   </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" name="buff"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-    <tableColumn id="7" name="Column7"/>
-    <tableColumn id="8" name="Column8"/>
-    <tableColumn id="9" name="Column9"/>
-    <tableColumn id="10" name="Column10"/>
+    <tableColumn id="2" name="remainTurn"/>
+    <tableColumn id="3" name="buffZone"/>
+    <tableColumn id="4" name="creature"/>
+    <tableColumn id="5" name="color"/>
+    <tableColumn id="6" name="tagName"/>
+    <tableColumn id="7" name="bleedingDMGRate"/>
+    <tableColumn id="8" name="dodgeRate"/>
+    <tableColumn id="9" name="healHP"/>
+    <tableColumn id="10" name="chargeLayer"/>
     <tableColumn id="11" name="Column11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -382,7 +401,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,7 +436,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,14 +613,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -629,7 +648,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="I1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
         <v>17</v>
@@ -637,7 +656,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="I2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -645,59 +664,59 @@
     </row>
     <row r="3" spans="1:15">
       <c r="I3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -741,7 +760,7 @@
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O6" t="s">
         <v>21</v>
@@ -794,7 +813,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -884,7 +903,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -911,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -974,7 +993,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1001,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1064,7 +1083,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1109,7 +1128,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1136,7 +1155,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1154,7 +1173,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1199,7 +1218,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1244,7 +1263,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1271,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1289,7 +1308,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1316,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1334,7 +1353,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1361,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1379,7 +1398,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1424,7 +1443,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1451,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1469,7 +1488,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1569,52 +1588,121 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="9" width="11" customWidth="1"/>
+    <col min="1" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="9" width="11" customWidth="1"/>
     <col min="10" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>51</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
         <v>54</v>
-      </c>
-      <c r="I5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/DataTables.xlsx
+++ b/Plan/DataTables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>Move</t>
   </si>
@@ -175,9 +175,6 @@
     <t>PK</t>
   </si>
   <si>
-    <t>Power</t>
-  </si>
-  <si>
     <t>Dodge</t>
   </si>
   <si>
@@ -187,43 +184,43 @@
     <t>Healing</t>
   </si>
   <si>
-    <t>remainTurn</t>
-  </si>
-  <si>
-    <t>buffZone</t>
-  </si>
-  <si>
-    <t>creature</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
     <t>tagName</t>
   </si>
   <si>
-    <t>TRANSFORM</t>
-  </si>
-  <si>
-    <t>CREATURE</t>
-  </si>
-  <si>
-    <t>COLOR</t>
-  </si>
-  <si>
-    <t>bleedingDMGRate</t>
-  </si>
-  <si>
-    <t>dodgeRate</t>
-  </si>
-  <si>
     <t>healHP</t>
   </si>
   <si>
     <t>chargeLayer</t>
   </si>
   <si>
-    <t>Change to ICON later</t>
+    <t>buffName</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>TriggerAt_TakeDMG</t>
+  </si>
+  <si>
+    <t>TriggerAt_TurnBegin</t>
+  </si>
+  <si>
+    <t>TriggerAt_Attack</t>
+  </si>
+  <si>
+    <t>bleedingDMGBase</t>
+  </si>
+  <si>
+    <t>dodgeRateBase</t>
   </si>
 </sst>
 </file>
@@ -342,16 +339,16 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" name="buff"/>
-    <tableColumn id="2" name="remainTurn"/>
-    <tableColumn id="3" name="buffZone"/>
-    <tableColumn id="4" name="creature"/>
-    <tableColumn id="5" name="color"/>
-    <tableColumn id="6" name="tagName"/>
-    <tableColumn id="7" name="bleedingDMGRate"/>
-    <tableColumn id="8" name="dodgeRate"/>
-    <tableColumn id="9" name="healHP"/>
-    <tableColumn id="10" name="chargeLayer"/>
+    <tableColumn id="1" name="buffName"/>
+    <tableColumn id="2" name="tagName"/>
+    <tableColumn id="3" name="bleedingDMGBase"/>
+    <tableColumn id="4" name="dodgeRateBase"/>
+    <tableColumn id="5" name="healHP"/>
+    <tableColumn id="6" name="chargeLayer"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="Column10"/>
     <tableColumn id="11" name="Column11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -613,7 +610,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -624,7 +621,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1589,18 +1586,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:K10"/>
+  <dimension ref="A3:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11" customWidth="1"/>
     <col min="10" max="11" width="12" customWidth="1"/>
   </cols>
@@ -1609,72 +1608,57 @@
       <c r="A3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>56</v>
       </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>58</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>59</v>
       </c>
-      <c r="G5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" t="s">
-        <v>64</v>
-      </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s">
         <v>48</v>
@@ -1684,25 +1668,44 @@
       <c r="A6" t="s">
         <v>51</v>
       </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>52</v>
       </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>54</v>
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
